--- a/CashFlow/FICO_cashflow.xlsx
+++ b/CashFlow/FICO_cashflow.xlsx
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-10769000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1059000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>16348000.0</v>
+        <v>95163000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>41183000.0</v>
+        <v>96350000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>61647000.0</v>
+        <v>83298000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>22380000.0</v>
